--- a/results/evaluate-fr.xlsx
+++ b/results/evaluate-fr.xlsx
@@ -553,7 +553,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -568,13 +568,13 @@
         <v>128</v>
       </c>
       <c r="O2" t="n">
-        <v>0.7911646586345381</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="P2" t="n">
-        <v>0.7576923076923077</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.6894951720774432</v>
+        <v>0.7063121994336446</v>
       </c>
     </row>
     <row r="3">
@@ -610,7 +610,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -625,13 +625,13 @@
         <v>128</v>
       </c>
       <c r="O3" t="n">
-        <v>0.7593984962406015</v>
+        <v>0.75</v>
       </c>
       <c r="P3" t="n">
-        <v>0.7769230769230769</v>
+        <v>0.7269230769230769</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.6994338644531383</v>
+        <v>0.7070680818000397</v>
       </c>
     </row>
     <row r="4">
@@ -667,7 +667,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -682,13 +682,13 @@
         <v>128</v>
       </c>
       <c r="O4" t="n">
-        <v>0.7773279352226721</v>
+        <v>0.757085020242915</v>
       </c>
       <c r="P4" t="n">
-        <v>0.7384615384615385</v>
+        <v>0.7192307692307692</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.6994654216291585</v>
+        <v>0.7082503634097772</v>
       </c>
     </row>
     <row r="5">
@@ -724,7 +724,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -739,13 +739,13 @@
         <v>128</v>
       </c>
       <c r="O5" t="n">
-        <v>0.7592592592592593</v>
+        <v>0.7723577235772358</v>
       </c>
       <c r="P5" t="n">
-        <v>0.7884615384615384</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.6953530951495811</v>
+        <v>0.7007808481460009</v>
       </c>
     </row>
     <row r="6">
@@ -781,7 +781,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -796,13 +796,13 @@
         <v>128</v>
       </c>
       <c r="O6" t="n">
-        <v>0.7490636704119851</v>
+        <v>0.7682926829268293</v>
       </c>
       <c r="P6" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.7269230769230769</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.7055483352054249</v>
+        <v>0.7050481990818337</v>
       </c>
     </row>
     <row r="7">
@@ -838,7 +838,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -853,13 +853,13 @@
         <v>128</v>
       </c>
       <c r="O7" t="n">
-        <v>0.7707509881422925</v>
+        <v>0.756</v>
       </c>
       <c r="P7" t="n">
-        <v>0.75</v>
+        <v>0.7269230769230769</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.6984362124880671</v>
+        <v>0.7063002488313815</v>
       </c>
     </row>
     <row r="8">
@@ -895,7 +895,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -910,13 +910,13 @@
         <v>128</v>
       </c>
       <c r="O8" t="n">
-        <v>0.7438016528925619</v>
+        <v>0.7201365187713311</v>
       </c>
       <c r="P8" t="n">
-        <v>0.6923076923076923</v>
+        <v>0.8115384615384615</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.7144518729412195</v>
+        <v>0.7098185456160343</v>
       </c>
     </row>
     <row r="9">
@@ -952,7 +952,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -967,13 +967,13 @@
         <v>128</v>
       </c>
       <c r="O9" t="n">
-        <v>0.7528957528957529</v>
+        <v>0.7606177606177607</v>
       </c>
       <c r="P9" t="n">
-        <v>0.75</v>
+        <v>0.7576923076923077</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.7042587342716399</v>
+        <v>0.7030003426910995</v>
       </c>
     </row>
     <row r="10">
@@ -1009,7 +1009,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1024,13 +1024,13 @@
         <v>128</v>
       </c>
       <c r="O10" t="n">
-        <v>0.7581967213114754</v>
+        <v>0.7380073800738007</v>
       </c>
       <c r="P10" t="n">
-        <v>0.7115384615384616</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.706963393079254</v>
+        <v>0.709109801234621</v>
       </c>
     </row>
     <row r="11">
@@ -1066,7 +1066,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1081,13 +1081,13 @@
         <v>128</v>
       </c>
       <c r="O11" t="n">
-        <v>0.756</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="P11" t="n">
-        <v>0.7269230769230769</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.7114541669944664</v>
+        <v>0.7130667293742622</v>
       </c>
     </row>
     <row r="12">
@@ -1101,7 +1101,7 @@
         <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>56.27705627705628</v>
+        <v>56.39913232104121</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
@@ -1123,7 +1123,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1138,13 +1138,13 @@
         <v>128</v>
       </c>
       <c r="O12" t="n">
-        <v>0.7380952380952381</v>
+        <v>0.75</v>
       </c>
       <c r="P12" t="n">
-        <v>0.7153846153846154</v>
+        <v>0.7961538461538461</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.7178158494301172</v>
+        <v>0.698904882801329</v>
       </c>
     </row>
     <row r="13">
@@ -1158,7 +1158,7 @@
         <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>56.27705627705628</v>
+        <v>56.39913232104121</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1195,13 +1195,13 @@
         <v>128</v>
       </c>
       <c r="O13" t="n">
-        <v>0.748</v>
+        <v>0.7519083969465649</v>
       </c>
       <c r="P13" t="n">
-        <v>0.7192307692307692</v>
+        <v>0.7576923076923077</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.7111496109983105</v>
+        <v>0.7060372490686346</v>
       </c>
     </row>
     <row r="14">
@@ -1215,7 +1215,7 @@
         <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>56.27705627705628</v>
+        <v>56.39913232104121</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1252,13 +1252,13 @@
         <v>128</v>
       </c>
       <c r="O14" t="n">
-        <v>0.7326007326007326</v>
+        <v>0.7479338842975206</v>
       </c>
       <c r="P14" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.6961538461538461</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.7108376993761434</v>
+        <v>0.7187700616822067</v>
       </c>
     </row>
     <row r="15">
@@ -1272,7 +1272,7 @@
         <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>56.27705627705628</v>
+        <v>56.39913232104121</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
@@ -1294,7 +1294,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1309,13 +1309,13 @@
         <v>128</v>
       </c>
       <c r="O15" t="n">
-        <v>0.7266187050359713</v>
+        <v>0.732</v>
       </c>
       <c r="P15" t="n">
-        <v>0.7769230769230769</v>
+        <v>0.7038461538461539</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.7132021619644</v>
+        <v>0.7250598414342471</v>
       </c>
     </row>
     <row r="16">
@@ -1329,7 +1329,7 @@
         <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>56.27705627705628</v>
+        <v>56.39913232104121</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
@@ -1351,7 +1351,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1366,13 +1366,13 @@
         <v>128</v>
       </c>
       <c r="O16" t="n">
-        <v>0.7348484848484849</v>
+        <v>0.7071428571428572</v>
       </c>
       <c r="P16" t="n">
-        <v>0.7461538461538462</v>
+        <v>0.7615384615384615</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.7141326794892678</v>
+        <v>0.7230816667095441</v>
       </c>
     </row>
     <row r="17">
@@ -1386,7 +1386,7 @@
         <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>56.27705627705628</v>
+        <v>56.39913232104121</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
@@ -1408,7 +1408,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1423,13 +1423,13 @@
         <v>128</v>
       </c>
       <c r="O17" t="n">
-        <v>0.7315175097276264</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="P17" t="n">
-        <v>0.7230769230769231</v>
+        <v>0.7115384615384616</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.7129743948127284</v>
+        <v>0.7274324900416128</v>
       </c>
     </row>
     <row r="18">
@@ -1443,7 +1443,7 @@
         <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>56.27705627705628</v>
+        <v>56.39913232104121</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
@@ -1465,7 +1465,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1480,13 +1480,13 @@
         <v>128</v>
       </c>
       <c r="O18" t="n">
-        <v>0.7338709677419355</v>
+        <v>0.7377777777777778</v>
       </c>
       <c r="P18" t="n">
-        <v>0.7</v>
+        <v>0.6384615384615384</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.7200608330887633</v>
+        <v>0.7279863480373474</v>
       </c>
     </row>
     <row r="19">
@@ -1500,7 +1500,7 @@
         <v>5</v>
       </c>
       <c r="D19" t="n">
-        <v>56.27705627705628</v>
+        <v>56.39913232104121</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
@@ -1522,7 +1522,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1537,13 +1537,13 @@
         <v>128</v>
       </c>
       <c r="O19" t="n">
-        <v>0.7541666666666667</v>
+        <v>0.7489177489177489</v>
       </c>
       <c r="P19" t="n">
-        <v>0.6961538461538461</v>
+        <v>0.6653846153846154</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.7148600705774315</v>
+        <v>0.7214479675261938</v>
       </c>
     </row>
     <row r="20">
@@ -1557,7 +1557,7 @@
         <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>56.27705627705628</v>
+        <v>56.39913232104121</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1594,13 +1594,13 @@
         <v>128</v>
       </c>
       <c r="O20" t="n">
-        <v>0.7637795275590551</v>
+        <v>0.7326007326007326</v>
       </c>
       <c r="P20" t="n">
-        <v>0.7461538461538462</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.7013417833295219</v>
+        <v>0.7096098014951528</v>
       </c>
     </row>
     <row r="21">
@@ -1614,7 +1614,7 @@
         <v>5</v>
       </c>
       <c r="D21" t="n">
-        <v>56.27705627705628</v>
+        <v>56.39913232104121</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1651,13 +1651,13 @@
         <v>128</v>
       </c>
       <c r="O21" t="n">
-        <v>0.7230215827338129</v>
+        <v>0.7421875</v>
       </c>
       <c r="P21" t="n">
-        <v>0.7730769230769231</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.7140974975251532</v>
+        <v>0.7121855692853121</v>
       </c>
     </row>
     <row r="22">
@@ -1693,7 +1693,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -1708,13 +1708,13 @@
         <v>128</v>
       </c>
       <c r="O22" t="n">
-        <v>0.7569721115537849</v>
+        <v>0.782051282051282</v>
       </c>
       <c r="P22" t="n">
-        <v>0.7307692307692307</v>
+        <v>0.7038461538461539</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.7066138169982217</v>
+        <v>0.702547870157085</v>
       </c>
     </row>
     <row r="23">
@@ -1750,7 +1750,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -1765,13 +1765,13 @@
         <v>128</v>
       </c>
       <c r="O23" t="n">
-        <v>0.7391304347826086</v>
+        <v>0.7620967741935484</v>
       </c>
       <c r="P23" t="n">
-        <v>0.7192307692307692</v>
+        <v>0.7269230769230769</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.7184632350872089</v>
+        <v>0.7041727843738738</v>
       </c>
     </row>
     <row r="24">
@@ -1807,7 +1807,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -1822,13 +1822,13 @@
         <v>128</v>
       </c>
       <c r="O24" t="n">
-        <v>0.7916666666666666</v>
+        <v>0.7923728813559322</v>
       </c>
       <c r="P24" t="n">
-        <v>0.6576923076923077</v>
+        <v>0.7192307692307692</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.7104423089976951</v>
+        <v>0.6961387194596328</v>
       </c>
     </row>
     <row r="25">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -1879,13 +1879,13 @@
         <v>128</v>
       </c>
       <c r="O25" t="n">
-        <v>0.7586206896551724</v>
+        <v>0.7689075630252101</v>
       </c>
       <c r="P25" t="n">
-        <v>0.7615384615384615</v>
+        <v>0.7038461538461539</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.7030274215198699</v>
+        <v>0.7032994354442085</v>
       </c>
     </row>
     <row r="26">
@@ -1921,7 +1921,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -1936,13 +1936,13 @@
         <v>128</v>
       </c>
       <c r="O26" t="n">
-        <v>0.7606837606837606</v>
+        <v>0.76</v>
       </c>
       <c r="P26" t="n">
-        <v>0.6846153846153846</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.7153068796380774</v>
+        <v>0.7040123072537509</v>
       </c>
     </row>
     <row r="27">
@@ -1978,7 +1978,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -1993,13 +1993,13 @@
         <v>128</v>
       </c>
       <c r="O27" t="n">
-        <v>0.7651821862348178</v>
+        <v>0.7745901639344263</v>
       </c>
       <c r="P27" t="n">
         <v>0.7269230769230769</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.7055485354357468</v>
+        <v>0.7031134583733298</v>
       </c>
     </row>
     <row r="28">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2050,13 +2050,13 @@
         <v>128</v>
       </c>
       <c r="O28" t="n">
-        <v>0.7598425196850394</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="P28" t="n">
-        <v>0.7423076923076923</v>
+        <v>0.7538461538461538</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.7056905678856424</v>
+        <v>0.7014006951670626</v>
       </c>
     </row>
     <row r="29">
@@ -2092,7 +2092,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2107,13 +2107,13 @@
         <v>128</v>
       </c>
       <c r="O29" t="n">
-        <v>0.7372262773722628</v>
+        <v>0.7982832618025751</v>
       </c>
       <c r="P29" t="n">
-        <v>0.7769230769230769</v>
+        <v>0.7153846153846154</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.7092858220075632</v>
+        <v>0.6915826622025791</v>
       </c>
     </row>
     <row r="30">
@@ -2149,7 +2149,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2164,13 +2164,13 @@
         <v>128</v>
       </c>
       <c r="O30" t="n">
-        <v>0.7913043478260869</v>
+        <v>0.75390625</v>
       </c>
       <c r="P30" t="n">
-        <v>0.7</v>
+        <v>0.7423076923076923</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.7029318254747432</v>
+        <v>0.7053699834006173</v>
       </c>
     </row>
     <row r="31">
@@ -2206,7 +2206,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2221,13 +2221,13 @@
         <v>128</v>
       </c>
       <c r="O31" t="n">
-        <v>0.7446808510638298</v>
+        <v>0.7603305785123967</v>
       </c>
       <c r="P31" t="n">
-        <v>0.6730769230769231</v>
+        <v>0.7076923076923077</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.718891303260605</v>
+        <v>0.7112272090210027</v>
       </c>
     </row>
     <row r="32">
@@ -2263,7 +2263,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2278,13 +2278,13 @@
         <v>128</v>
       </c>
       <c r="O32" t="n">
-        <v>0.7358490566037735</v>
+        <v>0.7276119402985075</v>
       </c>
       <c r="P32" t="n">
         <v>0.75</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.7151334848238792</v>
+        <v>0.7183042073146605</v>
       </c>
     </row>
     <row r="33">
@@ -2320,7 +2320,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -2335,13 +2335,13 @@
         <v>128</v>
       </c>
       <c r="O33" t="n">
-        <v>0.7796610169491526</v>
+        <v>0.7306122448979592</v>
       </c>
       <c r="P33" t="n">
-        <v>0.7076923076923077</v>
+        <v>0.6884615384615385</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.7065868217707713</v>
+        <v>0.7254826632929054</v>
       </c>
     </row>
     <row r="34">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -2392,13 +2392,13 @@
         <v>128</v>
       </c>
       <c r="O34" t="n">
-        <v>0.7552742616033755</v>
+        <v>0.759825327510917</v>
       </c>
       <c r="P34" t="n">
-        <v>0.6884615384615385</v>
+        <v>0.6692307692307692</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.7148808362164023</v>
+        <v>0.7153943031381219</v>
       </c>
     </row>
     <row r="35">
@@ -2434,7 +2434,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -2449,13 +2449,13 @@
         <v>128</v>
       </c>
       <c r="O35" t="n">
-        <v>0.729957805907173</v>
+        <v>0.7587719298245614</v>
       </c>
       <c r="P35" t="n">
         <v>0.6653846153846154</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.7293910861531377</v>
+        <v>0.7166500349581499</v>
       </c>
     </row>
     <row r="36">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -2506,13 +2506,13 @@
         <v>128</v>
       </c>
       <c r="O36" t="n">
-        <v>0.7489361702127659</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="P36" t="n">
-        <v>0.676923076923077</v>
+        <v>0.7192307692307692</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.7154557583652017</v>
+        <v>0.717388221195766</v>
       </c>
     </row>
     <row r="37">
@@ -2548,7 +2548,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -2563,13 +2563,13 @@
         <v>128</v>
       </c>
       <c r="O37" t="n">
-        <v>0.7209302325581395</v>
+        <v>0.7265625</v>
       </c>
       <c r="P37" t="n">
         <v>0.7153846153846154</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.7258680589271315</v>
+        <v>0.7203767882797109</v>
       </c>
     </row>
     <row r="38">
@@ -2605,7 +2605,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -2620,13 +2620,13 @@
         <v>128</v>
       </c>
       <c r="O38" t="n">
-        <v>0.7546296296296297</v>
+        <v>0.7413127413127413</v>
       </c>
       <c r="P38" t="n">
-        <v>0.6269230769230769</v>
+        <v>0.7384615384615385</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.7259156572354304</v>
+        <v>0.7118469623776226</v>
       </c>
     </row>
     <row r="39">
@@ -2662,7 +2662,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -2677,13 +2677,13 @@
         <v>128</v>
       </c>
       <c r="O39" t="n">
-        <v>0.7659574468085106</v>
+        <v>0.7276119402985075</v>
       </c>
       <c r="P39" t="n">
-        <v>0.6923076923076923</v>
+        <v>0.75</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.7125888758407527</v>
+        <v>0.7180078341847375</v>
       </c>
     </row>
     <row r="40">
@@ -2719,7 +2719,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -2734,13 +2734,13 @@
         <v>128</v>
       </c>
       <c r="O40" t="n">
-        <v>0.7658730158730159</v>
+        <v>0.7481751824817519</v>
       </c>
       <c r="P40" t="n">
-        <v>0.7423076923076923</v>
+        <v>0.7884615384615384</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.7032936442466009</v>
+        <v>0.7021334723476723</v>
       </c>
     </row>
     <row r="41">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -2791,13 +2791,13 @@
         <v>128</v>
       </c>
       <c r="O41" t="n">
-        <v>0.7583333333333333</v>
+        <v>0.7392996108949417</v>
       </c>
       <c r="P41" t="n">
-        <v>0.7</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.7075820779387569</v>
+        <v>0.7119455928410287</v>
       </c>
     </row>
     <row r="42">
@@ -2833,7 +2833,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -2848,13 +2848,13 @@
         <v>128</v>
       </c>
       <c r="O42" t="n">
-        <v>0.7751004016064257</v>
+        <v>0.7598425196850394</v>
       </c>
       <c r="P42" t="n">
         <v>0.7423076923076923</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.6965125956576624</v>
+        <v>0.7026205233165196</v>
       </c>
     </row>
     <row r="43">
@@ -2890,7 +2890,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -2905,13 +2905,13 @@
         <v>128</v>
       </c>
       <c r="O43" t="n">
-        <v>0.7509293680297398</v>
+        <v>0.765625</v>
       </c>
       <c r="P43" t="n">
-        <v>0.7769230769230769</v>
+        <v>0.7538461538461538</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.6980651480294925</v>
+        <v>0.6984874644836823</v>
       </c>
     </row>
     <row r="44">
@@ -2947,7 +2947,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -2962,13 +2962,13 @@
         <v>128</v>
       </c>
       <c r="O44" t="n">
-        <v>0.7256317689530686</v>
+        <v>0.7431506849315068</v>
       </c>
       <c r="P44" t="n">
-        <v>0.7730769230769231</v>
+        <v>0.8346153846153846</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.7118395866253675</v>
+        <v>0.6971372887169643</v>
       </c>
     </row>
     <row r="45">
@@ -3004,7 +3004,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3019,13 +3019,13 @@
         <v>128</v>
       </c>
       <c r="O45" t="n">
-        <v>0.7709923664122137</v>
+        <v>0.7415730337078652</v>
       </c>
       <c r="P45" t="n">
-        <v>0.7769230769230769</v>
+        <v>0.7615384615384615</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.6958734197017951</v>
+        <v>0.7078264755604071</v>
       </c>
     </row>
     <row r="46">
@@ -3061,7 +3061,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -3076,13 +3076,13 @@
         <v>128</v>
       </c>
       <c r="O46" t="n">
-        <v>0.7596899224806202</v>
+        <v>0.7670682730923695</v>
       </c>
       <c r="P46" t="n">
-        <v>0.7538461538461538</v>
+        <v>0.7346153846153847</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.7055110505649022</v>
+        <v>0.6987707999361542</v>
       </c>
     </row>
     <row r="47">
@@ -3118,7 +3118,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -3133,13 +3133,13 @@
         <v>128</v>
       </c>
       <c r="O47" t="n">
-        <v>0.7873303167420814</v>
+        <v>0.8169642857142857</v>
       </c>
       <c r="P47" t="n">
-        <v>0.6692307692307692</v>
+        <v>0.7038461538461539</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.7064823779192838</v>
+        <v>0.686190398740562</v>
       </c>
     </row>
     <row r="48">
@@ -3175,7 +3175,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -3190,13 +3190,13 @@
         <v>128</v>
       </c>
       <c r="O48" t="n">
-        <v>0.7633587786259542</v>
+        <v>0.7907949790794979</v>
       </c>
       <c r="P48" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.7269230769230769</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.6936168815150405</v>
+        <v>0.6946373504477662</v>
       </c>
     </row>
     <row r="49">
@@ -3232,7 +3232,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -3247,13 +3247,13 @@
         <v>128</v>
       </c>
       <c r="O49" t="n">
-        <v>0.7447552447552448</v>
+        <v>0.7635658914728682</v>
       </c>
       <c r="P49" t="n">
-        <v>0.8192307692307692</v>
+        <v>0.7576923076923077</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.7017704091030798</v>
+        <v>0.6985492081869216</v>
       </c>
     </row>
     <row r="50">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -3304,13 +3304,13 @@
         <v>128</v>
       </c>
       <c r="O50" t="n">
-        <v>0.7377622377622378</v>
+        <v>0.7755102040816326</v>
       </c>
       <c r="P50" t="n">
-        <v>0.8115384615384615</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.6979335125906643</v>
+        <v>0.6985614467492868</v>
       </c>
     </row>
     <row r="51">
@@ -3346,7 +3346,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -3361,13 +3361,13 @@
         <v>128</v>
       </c>
       <c r="O51" t="n">
-        <v>0.7581227436823105</v>
+        <v>0.7584905660377359</v>
       </c>
       <c r="P51" t="n">
-        <v>0.8076923076923077</v>
+        <v>0.7730769230769231</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.6929852851541527</v>
+        <v>0.6985381524284164</v>
       </c>
     </row>
     <row r="52">
@@ -3403,7 +3403,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -3418,13 +3418,13 @@
         <v>128</v>
       </c>
       <c r="O52" t="n">
-        <v>0.7510204081632653</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="P52" t="n">
-        <v>0.7076923076923077</v>
+        <v>0.7192307692307692</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.7160898230292581</v>
+        <v>0.7210371422045159</v>
       </c>
     </row>
     <row r="53">
@@ -3460,7 +3460,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -3475,13 +3475,13 @@
         <v>128</v>
       </c>
       <c r="O53" t="n">
-        <v>0.7323943661971831</v>
+        <v>0.749003984063745</v>
       </c>
       <c r="P53" t="n">
-        <v>0.8</v>
+        <v>0.7230769230769231</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.7090864573722278</v>
+        <v>0.7143681567984742</v>
       </c>
     </row>
     <row r="54">
@@ -3517,7 +3517,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -3532,13 +3532,13 @@
         <v>128</v>
       </c>
       <c r="O54" t="n">
-        <v>0.7529411764705882</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="P54" t="n">
-        <v>0.7384615384615385</v>
+        <v>0.7</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.7032730132986457</v>
+        <v>0.7190746569530272</v>
       </c>
     </row>
     <row r="55">
@@ -3574,7 +3574,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -3589,13 +3589,13 @@
         <v>128</v>
       </c>
       <c r="O55" t="n">
-        <v>0.7536231884057971</v>
+        <v>0.7283950617283951</v>
       </c>
       <c r="P55" t="n">
-        <v>0.8</v>
+        <v>0.6807692307692308</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.696535133438193</v>
+        <v>0.7273031780214021</v>
       </c>
     </row>
     <row r="56">
@@ -3631,7 +3631,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -3646,13 +3646,13 @@
         <v>128</v>
       </c>
       <c r="O56" t="n">
-        <v>0.7235494880546075</v>
+        <v>0.7433628318584071</v>
       </c>
       <c r="P56" t="n">
-        <v>0.8153846153846154</v>
+        <v>0.6461538461538462</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.7068081880028629</v>
+        <v>0.7227691546147004</v>
       </c>
     </row>
     <row r="57">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -3703,13 +3703,13 @@
         <v>128</v>
       </c>
       <c r="O57" t="n">
-        <v>0.7844827586206896</v>
+        <v>0.7230769230769231</v>
       </c>
       <c r="P57" t="n">
-        <v>0.7</v>
+        <v>0.7230769230769231</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.6980433492433458</v>
+        <v>0.7219477120415989</v>
       </c>
     </row>
     <row r="58">
@@ -3745,7 +3745,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -3760,13 +3760,13 @@
         <v>128</v>
       </c>
       <c r="O58" t="n">
-        <v>0.7328519855595668</v>
+        <v>0.7061068702290076</v>
       </c>
       <c r="P58" t="n">
-        <v>0.7807692307692308</v>
+        <v>0.7115384615384616</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.7081085758291797</v>
+        <v>0.7267774175771903</v>
       </c>
     </row>
     <row r="59">
@@ -3802,7 +3802,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -3817,13 +3817,13 @@
         <v>128</v>
       </c>
       <c r="O59" t="n">
-        <v>0.7869565217391304</v>
+        <v>0.7584745762711864</v>
       </c>
       <c r="P59" t="n">
-        <v>0.6961538461538461</v>
+        <v>0.6884615384615385</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.7003974346887498</v>
+        <v>0.7107060461333303</v>
       </c>
     </row>
     <row r="60">
@@ -3859,7 +3859,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -3874,13 +3874,13 @@
         <v>128</v>
       </c>
       <c r="O60" t="n">
-        <v>0.7470817120622568</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="P60" t="n">
-        <v>0.7384615384615385</v>
+        <v>0.75</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.708415923438547</v>
+        <v>0.7385846923440049</v>
       </c>
     </row>
     <row r="61">
@@ -3916,7 +3916,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -3931,13 +3931,13 @@
         <v>128</v>
       </c>
       <c r="O61" t="n">
-        <v>0.7479674796747967</v>
+        <v>0.75</v>
       </c>
       <c r="P61" t="n">
-        <v>0.7076923076923077</v>
+        <v>0.6461538461538462</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.7127935463215882</v>
+        <v>0.7247194554898646</v>
       </c>
     </row>
     <row r="62">
@@ -3973,7 +3973,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -3988,13 +3988,13 @@
         <v>128</v>
       </c>
       <c r="O62" t="n">
-        <v>0.7322175732217573</v>
+        <v>0.7470355731225297</v>
       </c>
       <c r="P62" t="n">
-        <v>0.6730769230769231</v>
+        <v>0.7269230769230769</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.7199936243362757</v>
+        <v>0.7126370598743488</v>
       </c>
     </row>
     <row r="63">
@@ -4030,7 +4030,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -4045,13 +4045,13 @@
         <v>128</v>
       </c>
       <c r="O63" t="n">
-        <v>0.748898678414097</v>
+        <v>0.7357723577235772</v>
       </c>
       <c r="P63" t="n">
-        <v>0.6538461538461539</v>
+        <v>0.6961538461538461</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.7233233565375918</v>
+        <v>0.7200467702630279</v>
       </c>
     </row>
     <row r="64">
@@ -4087,7 +4087,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -4102,13 +4102,13 @@
         <v>128</v>
       </c>
       <c r="O64" t="n">
-        <v>0.7401574803149606</v>
+        <v>0.7306273062730627</v>
       </c>
       <c r="P64" t="n">
-        <v>0.7230769230769231</v>
+        <v>0.7615384615384615</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.7176992335876862</v>
+        <v>0.7203918943157444</v>
       </c>
     </row>
     <row r="65">
@@ -4144,7 +4144,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -4159,13 +4159,13 @@
         <v>128</v>
       </c>
       <c r="O65" t="n">
-        <v>0.7854077253218884</v>
+        <v>0.7376425855513308</v>
       </c>
       <c r="P65" t="n">
-        <v>0.7038461538461539</v>
+        <v>0.7461538461538462</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.7083910161798651</v>
+        <v>0.7159787117144762</v>
       </c>
     </row>
     <row r="66">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -4216,13 +4216,13 @@
         <v>128</v>
       </c>
       <c r="O66" t="n">
-        <v>0.7489177489177489</v>
+        <v>0.7759336099585062</v>
       </c>
       <c r="P66" t="n">
-        <v>0.6653846153846154</v>
+        <v>0.7192307692307692</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.7213866780330609</v>
+        <v>0.7080995298567272</v>
       </c>
     </row>
     <row r="67">
@@ -4258,7 +4258,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -4273,13 +4273,13 @@
         <v>128</v>
       </c>
       <c r="O67" t="n">
-        <v>0.7280334728033473</v>
+        <v>0.710801393728223</v>
       </c>
       <c r="P67" t="n">
-        <v>0.6692307692307692</v>
+        <v>0.7846153846153846</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.7219815393546959</v>
+        <v>0.7178522934129228</v>
       </c>
     </row>
     <row r="68">
@@ -4315,7 +4315,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -4330,13 +4330,13 @@
         <v>128</v>
       </c>
       <c r="O68" t="n">
-        <v>0.7455357142857143</v>
+        <v>0.7574468085106383</v>
       </c>
       <c r="P68" t="n">
-        <v>0.6423076923076924</v>
+        <v>0.6846153846153846</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.7293847058758591</v>
+        <v>0.7158215732285471</v>
       </c>
     </row>
     <row r="69">
@@ -4372,7 +4372,7 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -4387,13 +4387,13 @@
         <v>128</v>
       </c>
       <c r="O69" t="n">
-        <v>0.710204081632653</v>
+        <v>0.7722772277227723</v>
       </c>
       <c r="P69" t="n">
-        <v>0.6692307692307692</v>
+        <v>0.6</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.7344366905493137</v>
+        <v>0.7236171096434325</v>
       </c>
     </row>
     <row r="70">
@@ -4429,7 +4429,7 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -4444,13 +4444,13 @@
         <v>128</v>
       </c>
       <c r="O70" t="n">
-        <v>0.7702702702702703</v>
+        <v>0.7757847533632287</v>
       </c>
       <c r="P70" t="n">
-        <v>0.6576923076923077</v>
+        <v>0.6653846153846154</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.7121393138712103</v>
+        <v>0.7140134609106815</v>
       </c>
     </row>
     <row r="71">
@@ -4486,7 +4486,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -4501,13 +4501,13 @@
         <v>128</v>
       </c>
       <c r="O71" t="n">
-        <v>0.7622950819672131</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="P71" t="n">
-        <v>0.7153846153846154</v>
+        <v>0.7269230769230769</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.7110094159712523</v>
+        <v>0.7245149604685894</v>
       </c>
     </row>
     <row r="72">
@@ -4543,7 +4543,7 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
@@ -4558,13 +4558,13 @@
         <v>128</v>
       </c>
       <c r="O72" t="n">
-        <v>0.7132616487455197</v>
+        <v>0.7413127413127413</v>
       </c>
       <c r="P72" t="n">
-        <v>0.7653846153846153</v>
+        <v>0.7384615384615385</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.7196196258326113</v>
+        <v>0.715433753930129</v>
       </c>
     </row>
     <row r="73">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -4615,13 +4615,13 @@
         <v>128</v>
       </c>
       <c r="O73" t="n">
-        <v>0.7615062761506276</v>
+        <v>0.7652173913043478</v>
       </c>
       <c r="P73" t="n">
-        <v>0.7</v>
+        <v>0.676923076923077</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.7123897981334042</v>
+        <v>0.7111506655618742</v>
       </c>
     </row>
     <row r="74">
@@ -4657,7 +4657,7 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -4672,13 +4672,13 @@
         <v>128</v>
       </c>
       <c r="O74" t="n">
-        <v>0.748062015503876</v>
+        <v>0.7303370786516854</v>
       </c>
       <c r="P74" t="n">
-        <v>0.7423076923076923</v>
+        <v>0.75</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.7062168291636876</v>
+        <v>0.7117681668434308</v>
       </c>
     </row>
     <row r="75">
@@ -4714,7 +4714,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -4729,13 +4729,13 @@
         <v>128</v>
       </c>
       <c r="O75" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.7320754716981132</v>
       </c>
       <c r="P75" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.7461538461538462</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.7161473696366017</v>
+        <v>0.7091370346226218</v>
       </c>
     </row>
     <row r="76">
@@ -4771,7 +4771,7 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
@@ -4786,13 +4786,13 @@
         <v>128</v>
       </c>
       <c r="O76" t="n">
-        <v>0.7430830039525692</v>
+        <v>0.7279151943462897</v>
       </c>
       <c r="P76" t="n">
-        <v>0.7230769230769231</v>
+        <v>0.7923076923076923</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.715365313348316</v>
+        <v>0.7099969353510703</v>
       </c>
     </row>
     <row r="77">
@@ -4828,7 +4828,7 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
@@ -4843,13 +4843,13 @@
         <v>128</v>
       </c>
       <c r="O77" t="n">
-        <v>0.73828125</v>
+        <v>0.7349397590361446</v>
       </c>
       <c r="P77" t="n">
-        <v>0.7269230769230769</v>
+        <v>0.7038461538461539</v>
       </c>
       <c r="Q77" t="n">
-        <v>0.71471278156553</v>
+        <v>0.7139812372463606</v>
       </c>
     </row>
     <row r="78">
@@ -4885,7 +4885,7 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -4900,13 +4900,13 @@
         <v>128</v>
       </c>
       <c r="O78" t="n">
-        <v>0.7603305785123967</v>
+        <v>0.74609375</v>
       </c>
       <c r="P78" t="n">
-        <v>0.7076923076923077</v>
+        <v>0.7346153846153847</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.708579383629225</v>
+        <v>0.7111057004371246</v>
       </c>
     </row>
     <row r="79">
@@ -4942,7 +4942,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
@@ -4957,13 +4957,13 @@
         <v>128</v>
       </c>
       <c r="O79" t="n">
-        <v>0.7027027027027027</v>
+        <v>0.7357723577235772</v>
       </c>
       <c r="P79" t="n">
-        <v>0.8</v>
+        <v>0.6961538461538461</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.720271928227825</v>
+        <v>0.71898627900458</v>
       </c>
     </row>
     <row r="80">
@@ -4999,7 +4999,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -5014,13 +5014,13 @@
         <v>128</v>
       </c>
       <c r="O80" t="n">
-        <v>0.7627118644067796</v>
+        <v>0.721830985915493</v>
       </c>
       <c r="P80" t="n">
-        <v>0.6923076923076923</v>
+        <v>0.7884615384615384</v>
       </c>
       <c r="Q80" t="n">
-        <v>0.7104818704840424</v>
+        <v>0.7159072338760674</v>
       </c>
     </row>
     <row r="81">
@@ -5056,7 +5056,7 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
@@ -5071,13 +5071,13 @@
         <v>128</v>
       </c>
       <c r="O81" t="n">
-        <v>0.7425373134328358</v>
+        <v>0.7509881422924901</v>
       </c>
       <c r="P81" t="n">
-        <v>0.7653846153846153</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.7087867856025696</v>
+        <v>0.71364179189071</v>
       </c>
     </row>
     <row r="82">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
@@ -5128,13 +5128,13 @@
         <v>128</v>
       </c>
       <c r="O82" t="n">
-        <v>0.7509433962264151</v>
+        <v>0.7642276422764228</v>
       </c>
       <c r="P82" t="n">
-        <v>0.7653846153846153</v>
+        <v>0.7230769230769231</v>
       </c>
       <c r="Q82" t="n">
-        <v>0.7008591828408179</v>
+        <v>0.7047396444139027</v>
       </c>
     </row>
     <row r="83">
@@ -5170,7 +5170,7 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
@@ -5185,13 +5185,13 @@
         <v>128</v>
       </c>
       <c r="O83" t="n">
-        <v>0.7723577235772358</v>
+        <v>0.7530864197530864</v>
       </c>
       <c r="P83" t="n">
-        <v>0.7307692307692307</v>
+        <v>0.7038461538461539</v>
       </c>
       <c r="Q83" t="n">
-        <v>0.7008866827725332</v>
+        <v>0.7128304366941576</v>
       </c>
     </row>
     <row r="84">
@@ -5227,7 +5227,7 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
@@ -5242,13 +5242,13 @@
         <v>128</v>
       </c>
       <c r="O84" t="n">
-        <v>0.7826086956521739</v>
+        <v>0.7326388888888888</v>
       </c>
       <c r="P84" t="n">
-        <v>0.6923076923076923</v>
+        <v>0.8115384615384615</v>
       </c>
       <c r="Q84" t="n">
-        <v>0.6984365092211472</v>
+        <v>0.7074588392720078</v>
       </c>
     </row>
     <row r="85">
@@ -5284,7 +5284,7 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
@@ -5299,13 +5299,13 @@
         <v>128</v>
       </c>
       <c r="O85" t="n">
-        <v>0.7557251908396947</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="P85" t="n">
-        <v>0.7615384615384615</v>
+        <v>0.7538461538461538</v>
       </c>
       <c r="Q85" t="n">
-        <v>0.6981443757618661</v>
+        <v>0.7112701161083205</v>
       </c>
     </row>
     <row r="86">
@@ -5341,7 +5341,7 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
@@ -5356,13 +5356,13 @@
         <v>128</v>
       </c>
       <c r="O86" t="n">
-        <v>0.7414448669201521</v>
+        <v>0.7429718875502008</v>
       </c>
       <c r="P86" t="n">
-        <v>0.75</v>
+        <v>0.7115384615384616</v>
       </c>
       <c r="Q86" t="n">
-        <v>0.7069895450686996</v>
+        <v>0.7144564503715152</v>
       </c>
     </row>
     <row r="87">
@@ -5398,7 +5398,7 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
@@ -5413,13 +5413,13 @@
         <v>128</v>
       </c>
       <c r="O87" t="n">
-        <v>0.751004016064257</v>
+        <v>0.695364238410596</v>
       </c>
       <c r="P87" t="n">
-        <v>0.7192307692307692</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.7113838265468548</v>
+        <v>0.7306114381009882</v>
       </c>
     </row>
     <row r="88">
@@ -5455,7 +5455,7 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
@@ -5470,13 +5470,13 @@
         <v>128</v>
       </c>
       <c r="O88" t="n">
-        <v>0.7545126353790613</v>
+        <v>0.7656903765690377</v>
       </c>
       <c r="P88" t="n">
-        <v>0.8038461538461539</v>
+        <v>0.7038461538461539</v>
       </c>
       <c r="Q88" t="n">
-        <v>0.6966239170078591</v>
+        <v>0.7084162369434968</v>
       </c>
     </row>
     <row r="89">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
@@ -5527,13 +5527,13 @@
         <v>128</v>
       </c>
       <c r="O89" t="n">
-        <v>0.7717842323651453</v>
+        <v>0.7708333333333334</v>
       </c>
       <c r="P89" t="n">
-        <v>0.7153846153846154</v>
+        <v>0.7115384615384616</v>
       </c>
       <c r="Q89" t="n">
-        <v>0.6982632555486836</v>
+        <v>0.7066965518575726</v>
       </c>
     </row>
     <row r="90">
@@ -5569,7 +5569,7 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
@@ -5584,13 +5584,13 @@
         <v>128</v>
       </c>
       <c r="O90" t="n">
-        <v>0.7374517374517374</v>
+        <v>0.7620967741935484</v>
       </c>
       <c r="P90" t="n">
-        <v>0.7346153846153847</v>
+        <v>0.7269230769230769</v>
       </c>
       <c r="Q90" t="n">
-        <v>0.714568939043846</v>
+        <v>0.7011778736527348</v>
       </c>
     </row>
     <row r="91">
@@ -5626,7 +5626,7 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
@@ -5641,13 +5641,13 @@
         <v>128</v>
       </c>
       <c r="O91" t="n">
-        <v>0.7381818181818182</v>
+        <v>0.7759336099585062</v>
       </c>
       <c r="P91" t="n">
-        <v>0.7807692307692308</v>
+        <v>0.7192307692307692</v>
       </c>
       <c r="Q91" t="n">
-        <v>0.705680902902182</v>
+        <v>0.7041470839347674</v>
       </c>
     </row>
     <row r="92">
@@ -5683,7 +5683,7 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
@@ -5698,13 +5698,13 @@
         <v>128</v>
       </c>
       <c r="O92" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.7877551020408163</v>
       </c>
       <c r="P92" t="n">
-        <v>0.6923076923076923</v>
+        <v>0.7423076923076923</v>
       </c>
       <c r="Q92" t="n">
-        <v>0.7077995100062647</v>
+        <v>0.6955056487223803</v>
       </c>
     </row>
     <row r="93">
@@ -5740,7 +5740,7 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
@@ -5755,13 +5755,13 @@
         <v>128</v>
       </c>
       <c r="O93" t="n">
-        <v>0.784037558685446</v>
+        <v>0.7702127659574468</v>
       </c>
       <c r="P93" t="n">
-        <v>0.6423076923076924</v>
+        <v>0.6961538461538461</v>
       </c>
       <c r="Q93" t="n">
-        <v>0.7076210622147564</v>
+        <v>0.7077848310078377</v>
       </c>
     </row>
     <row r="94">
@@ -5797,7 +5797,7 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
@@ -5812,13 +5812,13 @@
         <v>128</v>
       </c>
       <c r="O94" t="n">
-        <v>0.7450980392156863</v>
+        <v>0.7437722419928826</v>
       </c>
       <c r="P94" t="n">
-        <v>0.7307692307692307</v>
+        <v>0.8038461538461539</v>
       </c>
       <c r="Q94" t="n">
-        <v>0.7126331125502978</v>
+        <v>0.7025451236989075</v>
       </c>
     </row>
     <row r="95">
@@ -5854,7 +5854,7 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
@@ -5869,13 +5869,13 @@
         <v>128</v>
       </c>
       <c r="O95" t="n">
-        <v>0.7557251908396947</v>
+        <v>0.7662835249042146</v>
       </c>
       <c r="P95" t="n">
-        <v>0.7615384615384615</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="Q95" t="n">
-        <v>0.7033090191486078</v>
+        <v>0.6962685089606744</v>
       </c>
     </row>
     <row r="96">
@@ -5911,7 +5911,7 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
@@ -5926,13 +5926,13 @@
         <v>128</v>
       </c>
       <c r="O96" t="n">
-        <v>0.7947598253275109</v>
+        <v>0.7642585551330798</v>
       </c>
       <c r="P96" t="n">
-        <v>0.7</v>
+        <v>0.7730769230769231</v>
       </c>
       <c r="Q96" t="n">
-        <v>0.6989631002599542</v>
+        <v>0.6948999808980273</v>
       </c>
     </row>
     <row r="97">
@@ -5968,7 +5968,7 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
@@ -5983,13 +5983,13 @@
         <v>128</v>
       </c>
       <c r="O97" t="n">
-        <v>0.757085020242915</v>
+        <v>0.758893280632411</v>
       </c>
       <c r="P97" t="n">
-        <v>0.7192307692307692</v>
+        <v>0.7384615384615385</v>
       </c>
       <c r="Q97" t="n">
-        <v>0.7076783149273365</v>
+        <v>0.7017910415992076</v>
       </c>
     </row>
     <row r="98">
@@ -6025,7 +6025,7 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
@@ -6040,13 +6040,13 @@
         <v>128</v>
       </c>
       <c r="O98" t="n">
-        <v>0.7782258064516129</v>
+        <v>0.7383512544802867</v>
       </c>
       <c r="P98" t="n">
-        <v>0.7423076923076923</v>
+        <v>0.7923076923076923</v>
       </c>
       <c r="Q98" t="n">
-        <v>0.6968425780663758</v>
+        <v>0.7043972355978829</v>
       </c>
     </row>
     <row r="99">
@@ -6082,7 +6082,7 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
@@ -6097,13 +6097,13 @@
         <v>128</v>
       </c>
       <c r="O99" t="n">
-        <v>0.7947598253275109</v>
+        <v>0.7576923076923077</v>
       </c>
       <c r="P99" t="n">
-        <v>0.7</v>
+        <v>0.7576923076923077</v>
       </c>
       <c r="Q99" t="n">
-        <v>0.6956232933254985</v>
+        <v>0.7032176955437763</v>
       </c>
     </row>
     <row r="100">
@@ -6139,7 +6139,7 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
@@ -6154,13 +6154,13 @@
         <v>128</v>
       </c>
       <c r="O100" t="n">
-        <v>0.7261904761904762</v>
+        <v>0.7721518987341772</v>
       </c>
       <c r="P100" t="n">
         <v>0.7038461538461539</v>
       </c>
       <c r="Q100" t="n">
-        <v>0.7231405560588424</v>
+        <v>0.7023646101291046</v>
       </c>
     </row>
     <row r="101">
@@ -6196,7 +6196,7 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
@@ -6211,13 +6211,13 @@
         <v>128</v>
       </c>
       <c r="O101" t="n">
-        <v>0.7899543378995434</v>
+        <v>0.7578947368421053</v>
       </c>
       <c r="P101" t="n">
-        <v>0.6653846153846154</v>
+        <v>0.8307692307692308</v>
       </c>
       <c r="Q101" t="n">
-        <v>0.7095713958595739</v>
+        <v>0.6886608928312987</v>
       </c>
     </row>
   </sheetData>
